--- a/biology/Zoologie/Carinostoma_elegans/Carinostoma_elegans.xlsx
+++ b/biology/Zoologie/Carinostoma_elegans/Carinostoma_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carinostoma elegans est une espèce d'opilions dyspnois de la famille des Nemastomatidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans l'Ouest de l'Ukraine, en Slovaquie, en Hongrie, en Roumanie, en Serbie et en Bulgarie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans l'Ouest de l'Ukraine, en Slovaquie, en Hongrie, en Roumanie, en Serbie et en Bulgarie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Šestáková et Mihál en 2014 mesure 1,5 mm et les femelles de 1,8 à 2,0 mm[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Šestáková et Mihál en 2014 mesure 1,5 mm et les femelles de 1,8 à 2,0 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Nemastoma elegans par Sørensen en 1894. Elle est placée dans le genre Mitostoma par Kratochvíl en 1958[2] puis dans le genre Carinostoma par Martens en 1978[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Nemastoma elegans par Sørensen en 1894. Elle est placée dans le genre Mitostoma par Kratochvíl en 1958 puis dans le genre Carinostoma par Martens en 1978.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lendl, 1894 : « A Magyar Nemzeti Muzeum Kaszáspókgyüjteménye [Opiliones Musaei Nationalis Hungarici]. » Természetrajzi Füzetek, vol. 17, p. 15–33 (texte intégral).</t>
         </is>
